--- a/T3Dir/V2Folder/St Joseph's College Staff.xlsx
+++ b/T3Dir/V2Folder/St Joseph's College Staff.xlsx
@@ -456,10 +456,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>92.75</v>
+        <v>122</v>
       </c>
       <c r="D2" t="n">
-        <v>1562.5</v>
+        <v>2782.5</v>
       </c>
     </row>
     <row r="3">
@@ -474,10 +474,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>97</v>
+        <v>128.75</v>
       </c>
       <c r="D3" t="n">
-        <v>1622.5</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>136.25</v>
+        <v>181.25</v>
       </c>
       <c r="D4" t="n">
-        <v>2275</v>
+        <v>4087.5</v>
       </c>
     </row>
     <row r="5">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>89.75</v>
+        <v>119.25</v>
       </c>
       <c r="D5" t="n">
-        <v>1500</v>
+        <v>2692.5</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>158</v>
+        <v>210.5</v>
       </c>
       <c r="D6" t="n">
-        <v>2635</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="7">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>83.5</v>
+        <v>110</v>
       </c>
       <c r="D7" t="n">
-        <v>1405</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="8">
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>105.5</v>
+        <v>140.5</v>
       </c>
       <c r="D8" t="n">
-        <v>1760</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="9">
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>107.25</v>
+        <v>143</v>
       </c>
       <c r="D9" t="n">
-        <v>1787.5</v>
+        <v>3217.5</v>
       </c>
     </row>
     <row r="10">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>132</v>
+        <v>175.75</v>
       </c>
       <c r="D10" t="n">
-        <v>2202.5</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="11">
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>117.5</v>
+        <v>156.5</v>
       </c>
       <c r="D11" t="n">
-        <v>1960</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="12"/>
